--- a/1-regression-analysis-and-predictive-models/linear-regression/penguins-linear-diagnostics-solution.xlsx
+++ b/1-regression-analysis-and-predictive-models/linear-regression/penguins-linear-diagnostics-solution.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-advanced-statistics-for-business-analytics\1-regression-analysis-and-predictive-models\linear-regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-advanced-statistics-for-business-analytics\1-regression-analysis-and-predictive-models\linear-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694D373E-B05A-439F-A163-71B2164E9452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D16F32A-6BE5-46C4-BB8F-B438589C75B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="13373" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="6" r:id="rId1"/>
@@ -11871,16 +11871,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B5F640-39B1-4D5F-94E5-B222DEE306AF}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -11894,35 +11894,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0602E6C0-0FA1-442C-B116-AE490667E582}">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.41015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3515625" customWidth="1"/>
+    <col min="3" max="3" width="20.87890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.41015625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.41015625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.64453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -11934,7 +11936,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -11953,7 +11955,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -11962,7 +11964,7 @@
         <v>0.75828367382581552</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -11971,7 +11973,7 @@
         <v>394.27817750906161</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -11980,12 +11982,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -12006,7 +12008,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -12029,7 +12031,7 @@
         <v>4.370680962998881E-107</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -12048,7 +12050,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -12065,8 +12067,8 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
@@ -12096,7 +12098,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -12128,7 +12130,7 @@
         <v>-5179.3047083880983</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -12160,7 +12162,7 @@
         <v>52.672214776789971</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B21" t="s">
         <v>49</v>
       </c>
@@ -12176,7 +12178,7 @@
         <v>52854795.628354833</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B22" t="s">
         <v>50</v>
       </c>
@@ -12191,7 +12193,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B23" t="s">
         <v>51</v>
       </c>
@@ -12207,7 +12209,7 @@
         <v>155455.28125986716</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -12216,7 +12218,7 @@
         <v>67426.540935672514</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -12224,8 +12226,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
@@ -12254,7 +12256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -12285,7 +12287,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -12316,7 +12318,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -12347,7 +12349,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -12378,7 +12380,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -12409,7 +12411,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -12440,7 +12442,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -12471,7 +12473,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -12502,7 +12504,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -12533,7 +12535,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -12564,7 +12566,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -12595,7 +12597,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -12626,7 +12628,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -12657,7 +12659,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -12688,7 +12690,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -12719,7 +12721,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -12750,7 +12752,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -12781,7 +12783,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -12812,7 +12814,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -12843,7 +12845,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A47" s="1">
         <v>20</v>
       </c>
@@ -12874,7 +12876,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A48" s="1">
         <v>21</v>
       </c>
@@ -12905,7 +12907,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A49" s="1">
         <v>22</v>
       </c>
@@ -12936,7 +12938,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A50" s="1">
         <v>23</v>
       </c>
@@ -12967,7 +12969,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A51" s="1">
         <v>24</v>
       </c>
@@ -12998,7 +13000,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A52" s="1">
         <v>25</v>
       </c>
@@ -13029,7 +13031,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A53" s="1">
         <v>26</v>
       </c>
@@ -13060,7 +13062,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A54" s="1">
         <v>27</v>
       </c>
@@ -13091,7 +13093,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A55" s="1">
         <v>28</v>
       </c>
@@ -13122,7 +13124,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A56" s="1">
         <v>29</v>
       </c>
@@ -13153,7 +13155,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A57" s="1">
         <v>30</v>
       </c>
@@ -13184,7 +13186,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A58" s="1">
         <v>31</v>
       </c>
@@ -13215,7 +13217,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A59" s="1">
         <v>32</v>
       </c>
@@ -13246,7 +13248,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A60" s="1">
         <v>33</v>
       </c>
@@ -13277,7 +13279,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A61" s="1">
         <v>34</v>
       </c>
@@ -13308,7 +13310,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A62" s="1">
         <v>35</v>
       </c>
@@ -13339,7 +13341,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A63" s="1">
         <v>36</v>
       </c>
@@ -13370,7 +13372,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A64" s="1">
         <v>37</v>
       </c>
@@ -13401,7 +13403,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A65" s="1">
         <v>38</v>
       </c>
@@ -13432,7 +13434,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A66" s="1">
         <v>39</v>
       </c>
@@ -13463,7 +13465,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A67" s="1">
         <v>40</v>
       </c>
@@ -13494,7 +13496,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A68" s="1">
         <v>41</v>
       </c>
@@ -13525,7 +13527,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A69" s="1">
         <v>42</v>
       </c>
@@ -13556,7 +13558,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A70" s="1">
         <v>43</v>
       </c>
@@ -13587,7 +13589,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A71" s="1">
         <v>44</v>
       </c>
@@ -13618,7 +13620,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A72" s="1">
         <v>45</v>
       </c>
@@ -13649,7 +13651,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A73" s="1">
         <v>46</v>
       </c>
@@ -13680,7 +13682,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A74" s="1">
         <v>47</v>
       </c>
@@ -13711,7 +13713,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A75" s="1">
         <v>48</v>
       </c>
@@ -13742,7 +13744,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A76" s="1">
         <v>49</v>
       </c>
@@ -13773,7 +13775,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A77" s="1">
         <v>50</v>
       </c>
@@ -13804,7 +13806,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A78" s="1">
         <v>51</v>
       </c>
@@ -13835,7 +13837,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A79" s="1">
         <v>52</v>
       </c>
@@ -13866,7 +13868,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A80" s="1">
         <v>53</v>
       </c>
@@ -13897,7 +13899,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A81" s="1">
         <v>54</v>
       </c>
@@ -13928,7 +13930,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A82" s="1">
         <v>55</v>
       </c>
@@ -13959,7 +13961,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A83" s="1">
         <v>56</v>
       </c>
@@ -13990,7 +13992,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A84" s="1">
         <v>57</v>
       </c>
@@ -14021,7 +14023,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A85" s="1">
         <v>58</v>
       </c>
@@ -14052,7 +14054,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A86" s="1">
         <v>59</v>
       </c>
@@ -14083,7 +14085,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A87" s="1">
         <v>60</v>
       </c>
@@ -14114,7 +14116,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A88" s="1">
         <v>61</v>
       </c>
@@ -14145,7 +14147,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A89" s="1">
         <v>62</v>
       </c>
@@ -14176,7 +14178,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A90" s="1">
         <v>63</v>
       </c>
@@ -14207,7 +14209,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A91" s="1">
         <v>64</v>
       </c>
@@ -14238,7 +14240,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A92" s="1">
         <v>65</v>
       </c>
@@ -14269,7 +14271,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A93" s="1">
         <v>66</v>
       </c>
@@ -14300,7 +14302,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A94" s="1">
         <v>67</v>
       </c>
@@ -14331,7 +14333,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A95" s="1">
         <v>68</v>
       </c>
@@ -14362,7 +14364,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A96" s="1">
         <v>69</v>
       </c>
@@ -14393,7 +14395,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A97" s="1">
         <v>70</v>
       </c>
@@ -14424,7 +14426,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A98" s="1">
         <v>71</v>
       </c>
@@ -14455,7 +14457,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A99" s="1">
         <v>72</v>
       </c>
@@ -14486,7 +14488,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A100" s="1">
         <v>73</v>
       </c>
@@ -14517,7 +14519,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A101" s="1">
         <v>74</v>
       </c>
@@ -14548,7 +14550,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A102" s="1">
         <v>75</v>
       </c>
@@ -14579,7 +14581,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A103" s="1">
         <v>76</v>
       </c>
@@ -14610,7 +14612,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A104" s="1">
         <v>77</v>
       </c>
@@ -14641,7 +14643,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A105" s="1">
         <v>78</v>
       </c>
@@ -14672,7 +14674,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A106" s="1">
         <v>79</v>
       </c>
@@ -14703,7 +14705,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A107" s="1">
         <v>80</v>
       </c>
@@ -14734,7 +14736,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A108" s="1">
         <v>81</v>
       </c>
@@ -14765,7 +14767,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A109" s="1">
         <v>82</v>
       </c>
@@ -14796,7 +14798,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A110" s="1">
         <v>83</v>
       </c>
@@ -14827,7 +14829,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A111" s="1">
         <v>84</v>
       </c>
@@ -14858,7 +14860,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A112" s="1">
         <v>85</v>
       </c>
@@ -14889,7 +14891,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A113" s="1">
         <v>86</v>
       </c>
@@ -14920,7 +14922,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A114" s="1">
         <v>87</v>
       </c>
@@ -14951,7 +14953,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A115" s="1">
         <v>88</v>
       </c>
@@ -14982,7 +14984,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A116" s="1">
         <v>89</v>
       </c>
@@ -15013,7 +15015,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A117" s="1">
         <v>90</v>
       </c>
@@ -15044,7 +15046,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A118" s="1">
         <v>91</v>
       </c>
@@ -15075,7 +15077,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A119" s="1">
         <v>92</v>
       </c>
@@ -15106,7 +15108,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A120" s="1">
         <v>93</v>
       </c>
@@ -15137,7 +15139,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A121" s="1">
         <v>94</v>
       </c>
@@ -15168,7 +15170,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A122" s="1">
         <v>95</v>
       </c>
@@ -15199,7 +15201,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A123" s="1">
         <v>96</v>
       </c>
@@ -15230,7 +15232,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A124" s="1">
         <v>97</v>
       </c>
@@ -15261,7 +15263,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A125" s="1">
         <v>98</v>
       </c>
@@ -15292,7 +15294,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A126" s="1">
         <v>99</v>
       </c>
@@ -15323,7 +15325,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A127" s="1">
         <v>100</v>
       </c>
@@ -15354,7 +15356,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A128" s="1">
         <v>101</v>
       </c>
@@ -15385,7 +15387,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A129" s="1">
         <v>102</v>
       </c>
@@ -15416,7 +15418,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A130" s="1">
         <v>103</v>
       </c>
@@ -15447,7 +15449,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A131" s="1">
         <v>104</v>
       </c>
@@ -15478,7 +15480,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A132" s="1">
         <v>105</v>
       </c>
@@ -15509,7 +15511,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A133" s="1">
         <v>106</v>
       </c>
@@ -15540,7 +15542,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A134" s="1">
         <v>107</v>
       </c>
@@ -15571,7 +15573,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A135" s="1">
         <v>108</v>
       </c>
@@ -15602,7 +15604,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A136" s="1">
         <v>109</v>
       </c>
@@ -15633,7 +15635,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A137" s="1">
         <v>110</v>
       </c>
@@ -15664,7 +15666,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A138" s="1">
         <v>111</v>
       </c>
@@ -15695,7 +15697,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A139" s="1">
         <v>112</v>
       </c>
@@ -15726,7 +15728,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A140" s="1">
         <v>113</v>
       </c>
@@ -15757,7 +15759,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A141" s="1">
         <v>114</v>
       </c>
@@ -15788,7 +15790,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A142" s="1">
         <v>115</v>
       </c>
@@ -15819,7 +15821,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A143" s="1">
         <v>116</v>
       </c>
@@ -15850,7 +15852,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A144" s="1">
         <v>117</v>
       </c>
@@ -15881,7 +15883,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A145" s="1">
         <v>118</v>
       </c>
@@ -15912,7 +15914,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A146" s="1">
         <v>119</v>
       </c>
@@ -15943,7 +15945,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A147" s="1">
         <v>120</v>
       </c>
@@ -15974,7 +15976,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A148" s="1">
         <v>121</v>
       </c>
@@ -16005,7 +16007,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A149" s="1">
         <v>122</v>
       </c>
@@ -16036,7 +16038,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A150" s="1">
         <v>123</v>
       </c>
@@ -16067,7 +16069,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A151" s="1">
         <v>124</v>
       </c>
@@ -16098,7 +16100,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A152" s="1">
         <v>125</v>
       </c>
@@ -16129,7 +16131,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A153" s="1">
         <v>126</v>
       </c>
@@ -16160,7 +16162,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A154" s="1">
         <v>127</v>
       </c>
@@ -16191,7 +16193,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A155" s="1">
         <v>128</v>
       </c>
@@ -16222,7 +16224,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A156" s="1">
         <v>129</v>
       </c>
@@ -16253,7 +16255,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A157" s="1">
         <v>130</v>
       </c>
@@ -16284,7 +16286,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A158" s="1">
         <v>131</v>
       </c>
@@ -16315,7 +16317,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A159" s="1">
         <v>132</v>
       </c>
@@ -16346,7 +16348,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A160" s="1">
         <v>133</v>
       </c>
@@ -16377,7 +16379,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A161" s="1">
         <v>134</v>
       </c>
@@ -16408,7 +16410,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A162" s="1">
         <v>135</v>
       </c>
@@ -16439,7 +16441,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A163" s="1">
         <v>136</v>
       </c>
@@ -16470,7 +16472,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A164" s="1">
         <v>137</v>
       </c>
@@ -16501,7 +16503,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A165" s="1">
         <v>138</v>
       </c>
@@ -16532,7 +16534,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A166" s="1">
         <v>139</v>
       </c>
@@ -16563,7 +16565,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A167" s="1">
         <v>140</v>
       </c>
@@ -16594,7 +16596,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A168" s="1">
         <v>141</v>
       </c>
@@ -16625,7 +16627,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A169" s="1">
         <v>142</v>
       </c>
@@ -16656,7 +16658,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A170" s="1">
         <v>143</v>
       </c>
@@ -16687,7 +16689,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A171" s="1">
         <v>144</v>
       </c>
@@ -16718,7 +16720,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A172" s="1">
         <v>145</v>
       </c>
@@ -16749,7 +16751,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A173" s="1">
         <v>146</v>
       </c>
@@ -16780,7 +16782,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A174" s="1">
         <v>147</v>
       </c>
@@ -16811,7 +16813,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A175" s="1">
         <v>148</v>
       </c>
@@ -16842,7 +16844,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A176" s="1">
         <v>149</v>
       </c>
@@ -16873,7 +16875,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A177" s="1">
         <v>150</v>
       </c>
@@ -16904,7 +16906,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A178" s="1">
         <v>151</v>
       </c>
@@ -16935,7 +16937,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A179" s="1">
         <v>152</v>
       </c>
@@ -16966,7 +16968,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A180" s="1">
         <v>153</v>
       </c>
@@ -16997,7 +16999,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A181" s="1">
         <v>154</v>
       </c>
@@ -17028,7 +17030,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A182" s="1">
         <v>155</v>
       </c>
@@ -17059,7 +17061,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A183" s="1">
         <v>156</v>
       </c>
@@ -17090,7 +17092,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A184" s="1">
         <v>157</v>
       </c>
@@ -17121,7 +17123,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A185" s="1">
         <v>158</v>
       </c>
@@ -17152,7 +17154,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A186" s="1">
         <v>159</v>
       </c>
@@ -17183,7 +17185,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A187" s="1">
         <v>160</v>
       </c>
@@ -17214,7 +17216,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A188" s="1">
         <v>161</v>
       </c>
@@ -17245,7 +17247,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A189" s="1">
         <v>162</v>
       </c>
@@ -17276,7 +17278,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A190" s="1">
         <v>163</v>
       </c>
@@ -17307,7 +17309,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A191" s="1">
         <v>164</v>
       </c>
@@ -17338,7 +17340,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A192" s="1">
         <v>165</v>
       </c>
@@ -17369,7 +17371,7 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A193" s="1">
         <v>166</v>
       </c>
@@ -17400,7 +17402,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A194" s="1">
         <v>167</v>
       </c>
@@ -17431,7 +17433,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A195" s="1">
         <v>168</v>
       </c>
@@ -17462,7 +17464,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A196" s="1">
         <v>169</v>
       </c>
@@ -17493,7 +17495,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A197" s="1">
         <v>170</v>
       </c>
@@ -17524,7 +17526,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A198" s="1">
         <v>171</v>
       </c>
@@ -17555,7 +17557,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A199" s="1">
         <v>172</v>
       </c>
@@ -17586,7 +17588,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A200" s="1">
         <v>173</v>
       </c>
@@ -17617,7 +17619,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A201" s="1">
         <v>174</v>
       </c>
@@ -17648,7 +17650,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A202" s="1">
         <v>175</v>
       </c>
@@ -17679,7 +17681,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A203" s="1">
         <v>176</v>
       </c>
@@ -17710,7 +17712,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A204" s="1">
         <v>177</v>
       </c>
@@ -17741,7 +17743,7 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A205" s="1">
         <v>178</v>
       </c>
@@ -17772,7 +17774,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A206" s="1">
         <v>179</v>
       </c>
@@ -17803,7 +17805,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A207" s="1">
         <v>180</v>
       </c>
@@ -17834,7 +17836,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A208" s="1">
         <v>181</v>
       </c>
@@ -17865,7 +17867,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A209" s="1">
         <v>182</v>
       </c>
@@ -17896,7 +17898,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A210" s="1">
         <v>183</v>
       </c>
@@ -17927,7 +17929,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A211" s="1">
         <v>184</v>
       </c>
@@ -17958,7 +17960,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A212" s="1">
         <v>185</v>
       </c>
@@ -17989,7 +17991,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A213" s="1">
         <v>186</v>
       </c>
@@ -18020,7 +18022,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A214" s="1">
         <v>187</v>
       </c>
@@ -18051,7 +18053,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A215" s="1">
         <v>188</v>
       </c>
@@ -18082,7 +18084,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A216" s="1">
         <v>189</v>
       </c>
@@ -18113,7 +18115,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A217" s="1">
         <v>190</v>
       </c>
@@ -18144,7 +18146,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A218" s="1">
         <v>191</v>
       </c>
@@ -18175,7 +18177,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A219" s="1">
         <v>192</v>
       </c>
@@ -18206,7 +18208,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A220" s="1">
         <v>193</v>
       </c>
@@ -18237,7 +18239,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A221" s="1">
         <v>194</v>
       </c>
@@ -18268,7 +18270,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A222" s="1">
         <v>195</v>
       </c>
@@ -18299,7 +18301,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A223" s="1">
         <v>196</v>
       </c>
@@ -18330,7 +18332,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A224" s="1">
         <v>197</v>
       </c>
@@ -18361,7 +18363,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A225" s="1">
         <v>198</v>
       </c>
@@ -18392,7 +18394,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A226" s="1">
         <v>199</v>
       </c>
@@ -18423,7 +18425,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A227" s="1">
         <v>200</v>
       </c>
@@ -18454,7 +18456,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A228" s="1">
         <v>201</v>
       </c>
@@ -18485,7 +18487,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A229" s="1">
         <v>202</v>
       </c>
@@ -18516,7 +18518,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A230" s="1">
         <v>203</v>
       </c>
@@ -18547,7 +18549,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A231" s="1">
         <v>204</v>
       </c>
@@ -18578,7 +18580,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A232" s="1">
         <v>205</v>
       </c>
@@ -18609,7 +18611,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A233" s="1">
         <v>206</v>
       </c>
@@ -18640,7 +18642,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A234" s="1">
         <v>207</v>
       </c>
@@ -18671,7 +18673,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A235" s="1">
         <v>208</v>
       </c>
@@ -18702,7 +18704,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A236" s="1">
         <v>209</v>
       </c>
@@ -18733,7 +18735,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A237" s="1">
         <v>210</v>
       </c>
@@ -18764,7 +18766,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A238" s="1">
         <v>211</v>
       </c>
@@ -18795,7 +18797,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A239" s="1">
         <v>212</v>
       </c>
@@ -18826,7 +18828,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A240" s="1">
         <v>213</v>
       </c>
@@ -18857,7 +18859,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A241" s="1">
         <v>214</v>
       </c>
@@ -18888,7 +18890,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A242" s="1">
         <v>215</v>
       </c>
@@ -18919,7 +18921,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A243" s="1">
         <v>216</v>
       </c>
@@ -18950,7 +18952,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A244" s="1">
         <v>217</v>
       </c>
@@ -18981,7 +18983,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A245" s="1">
         <v>218</v>
       </c>
@@ -19012,7 +19014,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A246" s="1">
         <v>219</v>
       </c>
@@ -19043,7 +19045,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A247" s="1">
         <v>220</v>
       </c>
@@ -19074,7 +19076,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A248" s="1">
         <v>221</v>
       </c>
@@ -19105,7 +19107,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A249" s="1">
         <v>222</v>
       </c>
@@ -19136,7 +19138,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A250" s="1">
         <v>223</v>
       </c>
@@ -19167,7 +19169,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A251" s="1">
         <v>224</v>
       </c>
@@ -19198,7 +19200,7 @@
         <v>4475</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A252" s="1">
         <v>225</v>
       </c>
@@ -19229,7 +19231,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A253" s="1">
         <v>226</v>
       </c>
@@ -19260,7 +19262,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A254" s="1">
         <v>227</v>
       </c>
@@ -19291,7 +19293,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A255" s="1">
         <v>228</v>
       </c>
@@ -19322,7 +19324,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A256" s="1">
         <v>229</v>
       </c>
@@ -19353,7 +19355,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A257" s="1">
         <v>230</v>
       </c>
@@ -19384,7 +19386,7 @@
         <v>4575</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A258" s="1">
         <v>231</v>
       </c>
@@ -19415,7 +19417,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A259" s="1">
         <v>232</v>
       </c>
@@ -19446,7 +19448,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A260" s="1">
         <v>233</v>
       </c>
@@ -19477,7 +19479,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A261" s="1">
         <v>234</v>
       </c>
@@ -19508,7 +19510,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A262" s="1">
         <v>235</v>
       </c>
@@ -19539,7 +19541,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A263" s="1">
         <v>236</v>
       </c>
@@ -19570,7 +19572,7 @@
         <v>4625</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A264" s="1">
         <v>237</v>
       </c>
@@ -19601,7 +19603,7 @@
         <v>4625</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A265" s="1">
         <v>238</v>
       </c>
@@ -19632,7 +19634,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A266" s="1">
         <v>239</v>
       </c>
@@ -19663,7 +19665,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A267" s="1">
         <v>240</v>
       </c>
@@ -19694,7 +19696,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A268" s="1">
         <v>241</v>
       </c>
@@ -19725,7 +19727,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A269" s="1">
         <v>242</v>
       </c>
@@ -19756,7 +19758,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A270" s="1">
         <v>243</v>
       </c>
@@ -19787,7 +19789,7 @@
         <v>4675</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A271" s="1">
         <v>244</v>
       </c>
@@ -19818,7 +19820,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A272" s="1">
         <v>245</v>
       </c>
@@ -19849,7 +19851,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A273" s="1">
         <v>246</v>
       </c>
@@ -19880,7 +19882,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A274" s="1">
         <v>247</v>
       </c>
@@ -19911,7 +19913,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A275" s="1">
         <v>248</v>
       </c>
@@ -19942,7 +19944,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A276" s="1">
         <v>249</v>
       </c>
@@ -19973,7 +19975,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A277" s="1">
         <v>250</v>
       </c>
@@ -20004,7 +20006,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A278" s="1">
         <v>251</v>
       </c>
@@ -20035,7 +20037,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A279" s="1">
         <v>252</v>
       </c>
@@ -20066,7 +20068,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A280" s="1">
         <v>253</v>
       </c>
@@ -20097,7 +20099,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A281" s="1">
         <v>254</v>
       </c>
@@ -20128,7 +20130,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A282" s="1">
         <v>255</v>
       </c>
@@ -20159,7 +20161,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A283" s="1">
         <v>256</v>
       </c>
@@ -20190,7 +20192,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A284" s="1">
         <v>257</v>
       </c>
@@ -20221,7 +20223,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A285" s="1">
         <v>258</v>
       </c>
@@ -20252,7 +20254,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A286" s="1">
         <v>259</v>
       </c>
@@ -20283,7 +20285,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A287" s="1">
         <v>260</v>
       </c>
@@ -20314,7 +20316,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A288" s="1">
         <v>261</v>
       </c>
@@ -20345,7 +20347,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A289" s="1">
         <v>262</v>
       </c>
@@ -20376,7 +20378,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A290" s="1">
         <v>263</v>
       </c>
@@ -20407,7 +20409,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A291" s="1">
         <v>264</v>
       </c>
@@ -20438,7 +20440,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A292" s="1">
         <v>265</v>
       </c>
@@ -20469,7 +20471,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A293" s="1">
         <v>266</v>
       </c>
@@ -20500,7 +20502,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A294" s="1">
         <v>267</v>
       </c>
@@ -20531,7 +20533,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A295" s="1">
         <v>268</v>
       </c>
@@ -20562,7 +20564,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A296" s="1">
         <v>269</v>
       </c>
@@ -20593,7 +20595,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A297" s="1">
         <v>270</v>
       </c>
@@ -20624,7 +20626,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A298" s="1">
         <v>271</v>
       </c>
@@ -20655,7 +20657,7 @@
         <v>4925</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A299" s="1">
         <v>272</v>
       </c>
@@ -20686,7 +20688,7 @@
         <v>4925</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A300" s="1">
         <v>273</v>
       </c>
@@ -20717,7 +20719,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A301" s="1">
         <v>274</v>
       </c>
@@ -20748,7 +20750,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A302" s="1">
         <v>275</v>
       </c>
@@ -20779,7 +20781,7 @@
         <v>4975</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A303" s="1">
         <v>276</v>
       </c>
@@ -20810,7 +20812,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A304" s="1">
         <v>277</v>
       </c>
@@ -20841,7 +20843,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A305" s="1">
         <v>278</v>
       </c>
@@ -20872,7 +20874,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A306" s="1">
         <v>279</v>
       </c>
@@ -20903,7 +20905,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A307" s="1">
         <v>280</v>
       </c>
@@ -20934,7 +20936,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A308" s="1">
         <v>281</v>
       </c>
@@ -20965,7 +20967,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A309" s="1">
         <v>282</v>
       </c>
@@ -20996,7 +20998,7 @@
         <v>5050</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A310" s="1">
         <v>283</v>
       </c>
@@ -21027,7 +21029,7 @@
         <v>5050</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A311" s="1">
         <v>284</v>
       </c>
@@ -21058,7 +21060,7 @@
         <v>5050</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A312" s="1">
         <v>285</v>
       </c>
@@ -21089,7 +21091,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A313" s="1">
         <v>286</v>
       </c>
@@ -21120,7 +21122,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A314" s="1">
         <v>287</v>
       </c>
@@ -21151,7 +21153,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A315" s="1">
         <v>288</v>
       </c>
@@ -21182,7 +21184,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A316" s="1">
         <v>289</v>
       </c>
@@ -21213,7 +21215,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A317" s="1">
         <v>290</v>
       </c>
@@ -21244,7 +21246,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A318" s="1">
         <v>291</v>
       </c>
@@ -21275,7 +21277,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A319" s="1">
         <v>292</v>
       </c>
@@ -21306,7 +21308,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A320" s="1">
         <v>293</v>
       </c>
@@ -21337,7 +21339,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A321" s="1">
         <v>294</v>
       </c>
@@ -21368,7 +21370,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A322" s="1">
         <v>295</v>
       </c>
@@ -21399,7 +21401,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A323" s="1">
         <v>296</v>
       </c>
@@ -21430,7 +21432,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A324" s="1">
         <v>297</v>
       </c>
@@ -21461,7 +21463,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A325" s="1">
         <v>298</v>
       </c>
@@ -21492,7 +21494,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A326" s="1">
         <v>299</v>
       </c>
@@ -21523,7 +21525,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A327" s="1">
         <v>300</v>
       </c>
@@ -21554,7 +21556,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A328" s="1">
         <v>301</v>
       </c>
@@ -21585,7 +21587,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A329" s="1">
         <v>302</v>
       </c>
@@ -21616,7 +21618,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A330" s="1">
         <v>303</v>
       </c>
@@ -21647,7 +21649,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A331" s="1">
         <v>304</v>
       </c>
@@ -21678,7 +21680,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A332" s="1">
         <v>305</v>
       </c>
@@ -21709,7 +21711,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A333" s="1">
         <v>306</v>
       </c>
@@ -21740,7 +21742,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A334" s="1">
         <v>307</v>
       </c>
@@ -21771,7 +21773,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A335" s="1">
         <v>308</v>
       </c>
@@ -21802,7 +21804,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A336" s="1">
         <v>309</v>
       </c>
@@ -21833,7 +21835,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A337" s="1">
         <v>310</v>
       </c>
@@ -21864,7 +21866,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A338" s="1">
         <v>311</v>
       </c>
@@ -21895,7 +21897,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A339" s="1">
         <v>312</v>
       </c>
@@ -21926,7 +21928,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A340" s="1">
         <v>313</v>
       </c>
@@ -21957,7 +21959,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A341" s="1">
         <v>314</v>
       </c>
@@ -21988,7 +21990,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A342" s="1">
         <v>315</v>
       </c>
@@ -22019,7 +22021,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A343" s="1">
         <v>316</v>
       </c>
@@ -22050,7 +22052,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A344" s="1">
         <v>317</v>
       </c>
@@ -22081,7 +22083,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A345" s="1">
         <v>318</v>
       </c>
@@ -22112,7 +22114,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A346" s="1">
         <v>319</v>
       </c>
@@ -22143,7 +22145,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A347" s="1">
         <v>320</v>
       </c>
@@ -22174,7 +22176,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A348" s="1">
         <v>321</v>
       </c>
@@ -22205,7 +22207,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A349" s="1">
         <v>322</v>
       </c>
@@ -22236,7 +22238,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A350" s="1">
         <v>323</v>
       </c>
@@ -22267,7 +22269,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A351" s="1">
         <v>324</v>
       </c>
@@ -22298,7 +22300,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A352" s="1">
         <v>325</v>
       </c>
@@ -22329,7 +22331,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A353" s="1">
         <v>326</v>
       </c>
@@ -22360,7 +22362,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A354" s="1">
         <v>327</v>
       </c>
@@ -22391,7 +22393,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A355" s="1">
         <v>328</v>
       </c>
@@ -22422,7 +22424,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A356" s="1">
         <v>329</v>
       </c>
@@ -22453,7 +22455,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A357" s="1">
         <v>330</v>
       </c>
@@ -22484,7 +22486,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A358" s="1">
         <v>331</v>
       </c>
@@ -22515,7 +22517,7 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A359" s="1">
         <v>332</v>
       </c>
@@ -22546,7 +22548,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A360" s="1">
         <v>333</v>
       </c>
@@ -22577,7 +22579,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A361" s="1">
         <v>334</v>
       </c>
@@ -22608,7 +22610,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A362" s="1">
         <v>335</v>
       </c>
@@ -22639,7 +22641,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A363" s="1">
         <v>336</v>
       </c>
@@ -22670,7 +22672,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A364" s="1">
         <v>337</v>
       </c>
@@ -22701,7 +22703,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A365" s="1">
         <v>338</v>
       </c>
@@ -22732,7 +22734,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A366" s="1">
         <v>339</v>
       </c>
@@ -22763,7 +22765,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A367" s="1">
         <v>340</v>
       </c>
@@ -22794,7 +22796,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A368" s="1">
         <v>341</v>
       </c>
@@ -22825,7 +22827,7 @@
         <v>6050</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="2">
         <v>342</v>
       </c>
@@ -22874,18 +22876,18 @@
       <selection pane="bottomLeft" activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.64453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.41015625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.64453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.52734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -22911,7 +22913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22937,7 +22939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22963,7 +22965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22989,7 +22991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>5</v>
       </c>
@@ -23015,7 +23017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>6</v>
       </c>
@@ -23041,7 +23043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>7</v>
       </c>
@@ -23067,7 +23069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>8</v>
       </c>
@@ -23093,7 +23095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>9</v>
       </c>
@@ -23119,7 +23121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>10</v>
       </c>
@@ -23145,7 +23147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>11</v>
       </c>
@@ -23171,7 +23173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>12</v>
       </c>
@@ -23197,7 +23199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>13</v>
       </c>
@@ -23223,7 +23225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>14</v>
       </c>
@@ -23249,7 +23251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>15</v>
       </c>
@@ -23275,7 +23277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>16</v>
       </c>
@@ -23301,7 +23303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>17</v>
       </c>
@@ -23327,7 +23329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>18</v>
       </c>
@@ -23353,7 +23355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>19</v>
       </c>
@@ -23379,7 +23381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>20</v>
       </c>
@@ -23405,7 +23407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>21</v>
       </c>
@@ -23431,7 +23433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>22</v>
       </c>
@@ -23457,7 +23459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>23</v>
       </c>
@@ -23483,7 +23485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>24</v>
       </c>
@@ -23509,7 +23511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>25</v>
       </c>
@@ -23535,7 +23537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>26</v>
       </c>
@@ -23561,7 +23563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>27</v>
       </c>
@@ -23587,7 +23589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>28</v>
       </c>
@@ -23613,7 +23615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>29</v>
       </c>
@@ -23639,7 +23641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>30</v>
       </c>
@@ -23665,7 +23667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>31</v>
       </c>
@@ -23691,7 +23693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>32</v>
       </c>
@@ -23717,7 +23719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>33</v>
       </c>
@@ -23743,7 +23745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>34</v>
       </c>
@@ -23769,7 +23771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>35</v>
       </c>
@@ -23795,7 +23797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>36</v>
       </c>
@@ -23821,7 +23823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>37</v>
       </c>
@@ -23847,7 +23849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>38</v>
       </c>
@@ -23873,7 +23875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>39</v>
       </c>
@@ -23899,7 +23901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>40</v>
       </c>
@@ -23925,7 +23927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>41</v>
       </c>
@@ -23951,7 +23953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>42</v>
       </c>
@@ -23977,7 +23979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>43</v>
       </c>
@@ -24003,7 +24005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>44</v>
       </c>
@@ -24029,7 +24031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>45</v>
       </c>
@@ -24055,7 +24057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>46</v>
       </c>
@@ -24081,7 +24083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>47</v>
       </c>
@@ -24107,7 +24109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>48</v>
       </c>
@@ -24133,7 +24135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>49</v>
       </c>
@@ -24159,7 +24161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>50</v>
       </c>
@@ -24185,7 +24187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>51</v>
       </c>
@@ -24211,7 +24213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>52</v>
       </c>
@@ -24237,7 +24239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>53</v>
       </c>
@@ -24263,7 +24265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>54</v>
       </c>
@@ -24289,7 +24291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>55</v>
       </c>
@@ -24315,7 +24317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>56</v>
       </c>
@@ -24341,7 +24343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>57</v>
       </c>
@@ -24367,7 +24369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>58</v>
       </c>
@@ -24393,7 +24395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>59</v>
       </c>
@@ -24419,7 +24421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>60</v>
       </c>
@@ -24445,7 +24447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>61</v>
       </c>
@@ -24471,7 +24473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>62</v>
       </c>
@@ -24497,7 +24499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>63</v>
       </c>
@@ -24523,7 +24525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>64</v>
       </c>
@@ -24549,7 +24551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>65</v>
       </c>
@@ -24575,7 +24577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>66</v>
       </c>
@@ -24601,7 +24603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>67</v>
       </c>
@@ -24627,7 +24629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>68</v>
       </c>
@@ -24653,7 +24655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>69</v>
       </c>
@@ -24679,7 +24681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>70</v>
       </c>
@@ -24705,7 +24707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>71</v>
       </c>
@@ -24731,7 +24733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>72</v>
       </c>
@@ -24757,7 +24759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>73</v>
       </c>
@@ -24783,7 +24785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>74</v>
       </c>
@@ -24809,7 +24811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>75</v>
       </c>
@@ -24835,7 +24837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>76</v>
       </c>
@@ -24861,7 +24863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>77</v>
       </c>
@@ -24887,7 +24889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>78</v>
       </c>
@@ -24913,7 +24915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>79</v>
       </c>
@@ -24939,7 +24941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>80</v>
       </c>
@@ -24965,7 +24967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>81</v>
       </c>
@@ -24991,7 +24993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>82</v>
       </c>
@@ -25017,7 +25019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>83</v>
       </c>
@@ -25043,7 +25045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>84</v>
       </c>
@@ -25069,7 +25071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>85</v>
       </c>
@@ -25095,7 +25097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>86</v>
       </c>
@@ -25121,7 +25123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>87</v>
       </c>
@@ -25147,7 +25149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>88</v>
       </c>
@@ -25173,7 +25175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>89</v>
       </c>
@@ -25199,7 +25201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>90</v>
       </c>
@@ -25225,7 +25227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>91</v>
       </c>
@@ -25251,7 +25253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>92</v>
       </c>
@@ -25277,7 +25279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>93</v>
       </c>
@@ -25303,7 +25305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>94</v>
       </c>
@@ -25329,7 +25331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>95</v>
       </c>
@@ -25355,7 +25357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>96</v>
       </c>
@@ -25381,7 +25383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>97</v>
       </c>
@@ -25407,7 +25409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>98</v>
       </c>
@@ -25433,7 +25435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>99</v>
       </c>
@@ -25459,7 +25461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>100</v>
       </c>
@@ -25485,7 +25487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>101</v>
       </c>
@@ -25511,7 +25513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>102</v>
       </c>
@@ -25537,7 +25539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>103</v>
       </c>
@@ -25563,7 +25565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>104</v>
       </c>
@@ -25589,7 +25591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>105</v>
       </c>
@@ -25615,7 +25617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>106</v>
       </c>
@@ -25641,7 +25643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>107</v>
       </c>
@@ -25667,7 +25669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>108</v>
       </c>
@@ -25693,7 +25695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>109</v>
       </c>
@@ -25719,7 +25721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>110</v>
       </c>
@@ -25745,7 +25747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>111</v>
       </c>
@@ -25771,7 +25773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>112</v>
       </c>
@@ -25797,7 +25799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>113</v>
       </c>
@@ -25823,7 +25825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>114</v>
       </c>
@@ -25849,7 +25851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>115</v>
       </c>
@@ -25875,7 +25877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>116</v>
       </c>
@@ -25901,7 +25903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>117</v>
       </c>
@@ -25927,7 +25929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>118</v>
       </c>
@@ -25953,7 +25955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>119</v>
       </c>
@@ -25979,7 +25981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>120</v>
       </c>
@@ -26005,7 +26007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>121</v>
       </c>
@@ -26031,7 +26033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>122</v>
       </c>
@@ -26057,7 +26059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>123</v>
       </c>
@@ -26083,7 +26085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>124</v>
       </c>
@@ -26109,7 +26111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>125</v>
       </c>
@@ -26135,7 +26137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>126</v>
       </c>
@@ -26161,7 +26163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>127</v>
       </c>
@@ -26187,7 +26189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>128</v>
       </c>
@@ -26213,7 +26215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>129</v>
       </c>
@@ -26239,7 +26241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>130</v>
       </c>
@@ -26265,7 +26267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>131</v>
       </c>
@@ -26291,7 +26293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>132</v>
       </c>
@@ -26317,7 +26319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>133</v>
       </c>
@@ -26343,7 +26345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>134</v>
       </c>
@@ -26369,7 +26371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>135</v>
       </c>
@@ -26395,7 +26397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>136</v>
       </c>
@@ -26421,7 +26423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>137</v>
       </c>
@@ -26447,7 +26449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>138</v>
       </c>
@@ -26473,7 +26475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>139</v>
       </c>
@@ -26499,7 +26501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>140</v>
       </c>
@@ -26525,7 +26527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>141</v>
       </c>
@@ -26551,7 +26553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>142</v>
       </c>
@@ -26577,7 +26579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>143</v>
       </c>
@@ -26603,7 +26605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>144</v>
       </c>
@@ -26629,7 +26631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>145</v>
       </c>
@@ -26655,7 +26657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>146</v>
       </c>
@@ -26681,7 +26683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>147</v>
       </c>
@@ -26707,7 +26709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>148</v>
       </c>
@@ -26733,7 +26735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>149</v>
       </c>
@@ -26759,7 +26761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>150</v>
       </c>
@@ -26785,7 +26787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>151</v>
       </c>
@@ -26811,7 +26813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>152</v>
       </c>
@@ -26837,7 +26839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>153</v>
       </c>
@@ -26863,7 +26865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>154</v>
       </c>
@@ -26889,7 +26891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>155</v>
       </c>
@@ -26915,7 +26917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>156</v>
       </c>
@@ -26941,7 +26943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>157</v>
       </c>
@@ -26967,7 +26969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>158</v>
       </c>
@@ -26993,7 +26995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>159</v>
       </c>
@@ -27019,7 +27021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>160</v>
       </c>
@@ -27045,7 +27047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>161</v>
       </c>
@@ -27071,7 +27073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>162</v>
       </c>
@@ -27097,7 +27099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>163</v>
       </c>
@@ -27123,7 +27125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>164</v>
       </c>
@@ -27149,7 +27151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>165</v>
       </c>
@@ -27175,7 +27177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>166</v>
       </c>
@@ -27201,7 +27203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>167</v>
       </c>
@@ -27227,7 +27229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>168</v>
       </c>
@@ -27253,7 +27255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>169</v>
       </c>
@@ -27279,7 +27281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>170</v>
       </c>
@@ -27305,7 +27307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>171</v>
       </c>
@@ -27331,7 +27333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>172</v>
       </c>
@@ -27357,7 +27359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>173</v>
       </c>
@@ -27383,7 +27385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>174</v>
       </c>
@@ -27409,7 +27411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>175</v>
       </c>
@@ -27435,7 +27437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>176</v>
       </c>
@@ -27461,7 +27463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>177</v>
       </c>
@@ -27487,7 +27489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>178</v>
       </c>
@@ -27513,7 +27515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>179</v>
       </c>
@@ -27539,7 +27541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>180</v>
       </c>
@@ -27565,7 +27567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>181</v>
       </c>
@@ -27591,7 +27593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>182</v>
       </c>
@@ -27617,7 +27619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>183</v>
       </c>
@@ -27643,7 +27645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>184</v>
       </c>
@@ -27669,7 +27671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>185</v>
       </c>
@@ -27695,7 +27697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>186</v>
       </c>
@@ -27721,7 +27723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>187</v>
       </c>
@@ -27747,7 +27749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>188</v>
       </c>
@@ -27773,7 +27775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>189</v>
       </c>
@@ -27799,7 +27801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>190</v>
       </c>
@@ -27825,7 +27827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>191</v>
       </c>
@@ -27851,7 +27853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>192</v>
       </c>
@@ -27877,7 +27879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>193</v>
       </c>
@@ -27903,7 +27905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>194</v>
       </c>
@@ -27929,7 +27931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>195</v>
       </c>
@@ -27955,7 +27957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>196</v>
       </c>
@@ -27981,7 +27983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>197</v>
       </c>
@@ -28007,7 +28009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>198</v>
       </c>
@@ -28033,7 +28035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>199</v>
       </c>
@@ -28059,7 +28061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>200</v>
       </c>
@@ -28085,7 +28087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>201</v>
       </c>
@@ -28111,7 +28113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>202</v>
       </c>
@@ -28137,7 +28139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>203</v>
       </c>
@@ -28163,7 +28165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>204</v>
       </c>
@@ -28189,7 +28191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>205</v>
       </c>
@@ -28215,7 +28217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>206</v>
       </c>
@@ -28241,7 +28243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>207</v>
       </c>
@@ -28267,7 +28269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>208</v>
       </c>
@@ -28293,7 +28295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>209</v>
       </c>
@@ -28319,7 +28321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>210</v>
       </c>
@@ -28345,7 +28347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>211</v>
       </c>
@@ -28371,7 +28373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>212</v>
       </c>
@@ -28397,7 +28399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>213</v>
       </c>
@@ -28423,7 +28425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>214</v>
       </c>
@@ -28449,7 +28451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>215</v>
       </c>
@@ -28475,7 +28477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>216</v>
       </c>
@@ -28501,7 +28503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>217</v>
       </c>
@@ -28527,7 +28529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>218</v>
       </c>
@@ -28553,7 +28555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>219</v>
       </c>
@@ -28579,7 +28581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>220</v>
       </c>
@@ -28605,7 +28607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>221</v>
       </c>
@@ -28631,7 +28633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>222</v>
       </c>
@@ -28657,7 +28659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A223">
         <v>223</v>
       </c>
@@ -28683,7 +28685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A224">
         <v>224</v>
       </c>
@@ -28709,7 +28711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A225">
         <v>225</v>
       </c>
@@ -28735,7 +28737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A226">
         <v>226</v>
       </c>
@@ -28761,7 +28763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A227">
         <v>227</v>
       </c>
@@ -28787,7 +28789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A228">
         <v>228</v>
       </c>
@@ -28813,7 +28815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A229">
         <v>229</v>
       </c>
@@ -28839,7 +28841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A230">
         <v>230</v>
       </c>
@@ -28865,7 +28867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A231">
         <v>231</v>
       </c>
@@ -28891,7 +28893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A232">
         <v>232</v>
       </c>
@@ -28917,7 +28919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A233">
         <v>233</v>
       </c>
@@ -28943,7 +28945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A234">
         <v>234</v>
       </c>
@@ -28969,7 +28971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A235">
         <v>235</v>
       </c>
@@ -28995,7 +28997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A236">
         <v>236</v>
       </c>
@@ -29021,7 +29023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A237">
         <v>237</v>
       </c>
@@ -29047,7 +29049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A238">
         <v>238</v>
       </c>
@@ -29073,7 +29075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A239">
         <v>239</v>
       </c>
@@ -29099,7 +29101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A240">
         <v>240</v>
       </c>
@@ -29125,7 +29127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A241">
         <v>241</v>
       </c>
@@ -29151,7 +29153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A242">
         <v>242</v>
       </c>
@@ -29177,7 +29179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A243">
         <v>243</v>
       </c>
@@ -29203,7 +29205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A244">
         <v>244</v>
       </c>
@@ -29229,7 +29231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A245">
         <v>245</v>
       </c>
@@ -29255,7 +29257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A246">
         <v>246</v>
       </c>
@@ -29281,7 +29283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A247">
         <v>247</v>
       </c>
@@ -29307,7 +29309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A248">
         <v>248</v>
       </c>
@@ -29333,7 +29335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A249">
         <v>249</v>
       </c>
@@ -29359,7 +29361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A250">
         <v>250</v>
       </c>
@@ -29385,7 +29387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A251">
         <v>251</v>
       </c>
@@ -29411,7 +29413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A252">
         <v>252</v>
       </c>
@@ -29437,7 +29439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A253">
         <v>253</v>
       </c>
@@ -29463,7 +29465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A254">
         <v>254</v>
       </c>
@@ -29489,7 +29491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A255">
         <v>255</v>
       </c>
@@ -29515,7 +29517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A256">
         <v>256</v>
       </c>
@@ -29541,7 +29543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A257">
         <v>257</v>
       </c>
@@ -29567,7 +29569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A258">
         <v>258</v>
       </c>
@@ -29593,7 +29595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A259">
         <v>259</v>
       </c>
@@ -29619,7 +29621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A260">
         <v>260</v>
       </c>
@@ -29645,7 +29647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A261">
         <v>261</v>
       </c>
@@ -29671,7 +29673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A262">
         <v>262</v>
       </c>
@@ -29697,7 +29699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A263">
         <v>263</v>
       </c>
@@ -29723,7 +29725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A264">
         <v>264</v>
       </c>
@@ -29749,7 +29751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A265">
         <v>265</v>
       </c>
@@ -29775,7 +29777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A266">
         <v>266</v>
       </c>
@@ -29801,7 +29803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A267">
         <v>267</v>
       </c>
@@ -29827,7 +29829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A268">
         <v>268</v>
       </c>
@@ -29853,7 +29855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A269">
         <v>269</v>
       </c>
@@ -29879,7 +29881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A270">
         <v>270</v>
       </c>
@@ -29905,7 +29907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A271">
         <v>271</v>
       </c>
@@ -29931,7 +29933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A272">
         <v>273</v>
       </c>
@@ -29957,7 +29959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A273">
         <v>274</v>
       </c>
@@ -29983,7 +29985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A274">
         <v>275</v>
       </c>
@@ -30009,7 +30011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A275">
         <v>276</v>
       </c>
@@ -30035,7 +30037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A276">
         <v>277</v>
       </c>
@@ -30061,7 +30063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A277">
         <v>278</v>
       </c>
@@ -30087,7 +30089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A278">
         <v>279</v>
       </c>
@@ -30113,7 +30115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A279">
         <v>280</v>
       </c>
@@ -30139,7 +30141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A280">
         <v>281</v>
       </c>
@@ -30165,7 +30167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A281">
         <v>282</v>
       </c>
@@ -30191,7 +30193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A282">
         <v>283</v>
       </c>
@@ -30217,7 +30219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A283">
         <v>284</v>
       </c>
@@ -30243,7 +30245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A284">
         <v>285</v>
       </c>
@@ -30269,7 +30271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A285">
         <v>286</v>
       </c>
@@ -30295,7 +30297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A286">
         <v>287</v>
       </c>
@@ -30321,7 +30323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A287">
         <v>288</v>
       </c>
@@ -30347,7 +30349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A288">
         <v>289</v>
       </c>
@@ -30373,7 +30375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A289">
         <v>290</v>
       </c>
@@ -30399,7 +30401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A290">
         <v>291</v>
       </c>
@@ -30425,7 +30427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A291">
         <v>292</v>
       </c>
@@ -30451,7 +30453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A292">
         <v>293</v>
       </c>
@@ -30477,7 +30479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A293">
         <v>294</v>
       </c>
@@ -30503,7 +30505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A294">
         <v>295</v>
       </c>
@@ -30529,7 +30531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A295">
         <v>296</v>
       </c>
@@ -30555,7 +30557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A296">
         <v>297</v>
       </c>
@@ -30581,7 +30583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A297">
         <v>298</v>
       </c>
@@ -30607,7 +30609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A298">
         <v>299</v>
       </c>
@@ -30633,7 +30635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A299">
         <v>300</v>
       </c>
@@ -30659,7 +30661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A300">
         <v>301</v>
       </c>
@@ -30685,7 +30687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A301">
         <v>302</v>
       </c>
@@ -30711,7 +30713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A302">
         <v>303</v>
       </c>
@@ -30737,7 +30739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A303">
         <v>304</v>
       </c>
@@ -30763,7 +30765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A304">
         <v>305</v>
       </c>
@@ -30789,7 +30791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A305">
         <v>306</v>
       </c>
@@ -30815,7 +30817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A306">
         <v>307</v>
       </c>
@@ -30841,7 +30843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A307">
         <v>308</v>
       </c>
@@ -30867,7 +30869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A308">
         <v>309</v>
       </c>
@@ -30893,7 +30895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A309">
         <v>310</v>
       </c>
@@ -30919,7 +30921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A310">
         <v>311</v>
       </c>
@@ -30945,7 +30947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A311">
         <v>312</v>
       </c>
@@ -30971,7 +30973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A312">
         <v>313</v>
       </c>
@@ -30997,7 +30999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A313">
         <v>314</v>
       </c>
@@ -31023,7 +31025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A314">
         <v>315</v>
       </c>
@@ -31049,7 +31051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A315">
         <v>316</v>
       </c>
@@ -31075,7 +31077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A316">
         <v>317</v>
       </c>
@@ -31101,7 +31103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A317">
         <v>318</v>
       </c>
@@ -31127,7 +31129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A318">
         <v>319</v>
       </c>
@@ -31153,7 +31155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A319">
         <v>320</v>
       </c>
@@ -31179,7 +31181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A320">
         <v>321</v>
       </c>
@@ -31205,7 +31207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A321">
         <v>322</v>
       </c>
@@ -31231,7 +31233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A322">
         <v>323</v>
       </c>
@@ -31257,7 +31259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A323">
         <v>324</v>
       </c>
@@ -31283,7 +31285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A324">
         <v>325</v>
       </c>
@@ -31309,7 +31311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A325">
         <v>326</v>
       </c>
@@ -31335,7 +31337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A326">
         <v>327</v>
       </c>
@@ -31361,7 +31363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A327">
         <v>328</v>
       </c>
@@ -31387,7 +31389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A328">
         <v>329</v>
       </c>
@@ -31413,7 +31415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A329">
         <v>330</v>
       </c>
@@ -31439,7 +31441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A330">
         <v>331</v>
       </c>
@@ -31465,7 +31467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A331">
         <v>332</v>
       </c>
@@ -31491,7 +31493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A332">
         <v>333</v>
       </c>
@@ -31517,7 +31519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A333">
         <v>334</v>
       </c>
@@ -31543,7 +31545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A334">
         <v>335</v>
       </c>
@@ -31569,7 +31571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A335">
         <v>336</v>
       </c>
@@ -31595,7 +31597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A336">
         <v>337</v>
       </c>
@@ -31621,7 +31623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A337">
         <v>338</v>
       </c>
@@ -31647,7 +31649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A338">
         <v>339</v>
       </c>
@@ -31673,7 +31675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A339">
         <v>340</v>
       </c>
@@ -31699,7 +31701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A340">
         <v>341</v>
       </c>
@@ -31725,7 +31727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A341">
         <v>342</v>
       </c>
@@ -31751,7 +31753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A342">
         <v>343</v>
       </c>
@@ -31777,7 +31779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A343">
         <v>344</v>
       </c>
@@ -31821,30 +31823,30 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.41015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.87890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.41015625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.41015625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.64453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -31852,7 +31854,7 @@
         <v>0.8726227616371518</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -31860,7 +31862,7 @@
         <v>0.76147048412724938</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -31868,7 +31870,7 @@
         <v>0.75935335824672201</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -31876,7 +31878,7 @@
         <v>393.40479657199114</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -31884,12 +31886,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>29</v>
@@ -31907,7 +31909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -31927,7 +31929,7 @@
         <v>8.1885256449237787E-105</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -31943,7 +31945,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -31957,8 +31959,8 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>34</v>
@@ -31985,7 +31987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -32014,7 +32016,7 @@
         <v>-5320.3505651055866</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -32043,7 +32045,7 @@
         <v>14.644174889142558</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -32072,7 +32074,7 @@
         <v>46.985583435793558</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -32101,7 +32103,7 @@
         <v>55.141780528857211</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -32109,8 +32111,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
         <v>42</v>
       </c>
@@ -32130,7 +32132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -32150,7 +32152,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -32170,7 +32172,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -32190,7 +32192,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -32210,7 +32212,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -32230,7 +32232,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -32250,7 +32252,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -32270,7 +32272,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -32290,7 +32292,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -32310,7 +32312,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36" s="1">
         <v>10</v>
       </c>
@@ -32330,7 +32332,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37" s="1">
         <v>11</v>
       </c>
@@ -32350,7 +32352,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A38" s="1">
         <v>12</v>
       </c>
@@ -32370,7 +32372,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A39" s="1">
         <v>13</v>
       </c>
@@ -32390,7 +32392,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A40" s="1">
         <v>14</v>
       </c>
@@ -32410,7 +32412,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A41" s="1">
         <v>15</v>
       </c>
@@ -32430,7 +32432,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A42" s="1">
         <v>16</v>
       </c>
@@ -32450,7 +32452,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A43" s="1">
         <v>17</v>
       </c>
@@ -32470,7 +32472,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A44" s="1">
         <v>18</v>
       </c>
@@ -32490,7 +32492,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A45" s="1">
         <v>19</v>
       </c>
@@ -32510,7 +32512,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A46" s="1">
         <v>20</v>
       </c>
@@ -32530,7 +32532,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A47" s="1">
         <v>21</v>
       </c>
@@ -32550,7 +32552,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A48" s="1">
         <v>22</v>
       </c>
@@ -32570,7 +32572,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A49" s="1">
         <v>23</v>
       </c>
@@ -32590,7 +32592,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A50" s="1">
         <v>24</v>
       </c>
@@ -32610,7 +32612,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A51" s="1">
         <v>25</v>
       </c>
@@ -32630,7 +32632,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A52" s="1">
         <v>26</v>
       </c>
@@ -32650,7 +32652,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A53" s="1">
         <v>27</v>
       </c>
@@ -32670,7 +32672,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A54" s="1">
         <v>28</v>
       </c>
@@ -32690,7 +32692,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A55" s="1">
         <v>29</v>
       </c>
@@ -32710,7 +32712,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A56" s="1">
         <v>30</v>
       </c>
@@ -32730,7 +32732,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A57" s="1">
         <v>31</v>
       </c>
@@ -32750,7 +32752,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A58" s="1">
         <v>32</v>
       </c>
@@ -32770,7 +32772,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A59" s="1">
         <v>33</v>
       </c>
@@ -32790,7 +32792,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A60" s="1">
         <v>34</v>
       </c>
@@ -32810,7 +32812,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A61" s="1">
         <v>35</v>
       </c>
@@ -32830,7 +32832,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A62" s="1">
         <v>36</v>
       </c>
@@ -32850,7 +32852,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A63" s="1">
         <v>37</v>
       </c>
@@ -32870,7 +32872,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A64" s="1">
         <v>38</v>
       </c>
@@ -32890,7 +32892,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A65" s="1">
         <v>39</v>
       </c>
@@ -32910,7 +32912,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A66" s="1">
         <v>40</v>
       </c>
@@ -32930,7 +32932,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A67" s="1">
         <v>41</v>
       </c>
@@ -32950,7 +32952,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A68" s="1">
         <v>42</v>
       </c>
@@ -32970,7 +32972,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A69" s="1">
         <v>43</v>
       </c>
@@ -32990,7 +32992,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A70" s="1">
         <v>44</v>
       </c>
@@ -33010,7 +33012,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A71" s="1">
         <v>45</v>
       </c>
@@ -33030,7 +33032,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A72" s="1">
         <v>46</v>
       </c>
@@ -33050,7 +33052,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A73" s="1">
         <v>47</v>
       </c>
@@ -33070,7 +33072,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A74" s="1">
         <v>48</v>
       </c>
@@ -33090,7 +33092,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A75" s="1">
         <v>49</v>
       </c>
@@ -33110,7 +33112,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A76" s="1">
         <v>50</v>
       </c>
@@ -33130,7 +33132,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A77" s="1">
         <v>51</v>
       </c>
@@ -33150,7 +33152,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A78" s="1">
         <v>52</v>
       </c>
@@ -33170,7 +33172,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A79" s="1">
         <v>53</v>
       </c>
@@ -33190,7 +33192,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A80" s="1">
         <v>54</v>
       </c>
@@ -33210,7 +33212,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A81" s="1">
         <v>55</v>
       </c>
@@ -33230,7 +33232,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A82" s="1">
         <v>56</v>
       </c>
@@ -33250,7 +33252,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A83" s="1">
         <v>57</v>
       </c>
@@ -33270,7 +33272,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A84" s="1">
         <v>58</v>
       </c>
@@ -33290,7 +33292,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A85" s="1">
         <v>59</v>
       </c>
@@ -33310,7 +33312,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A86" s="1">
         <v>60</v>
       </c>
@@ -33330,7 +33332,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A87" s="1">
         <v>61</v>
       </c>
@@ -33350,7 +33352,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A88" s="1">
         <v>62</v>
       </c>
@@ -33370,7 +33372,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A89" s="1">
         <v>63</v>
       </c>
@@ -33390,7 +33392,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A90" s="1">
         <v>64</v>
       </c>
@@ -33410,7 +33412,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A91" s="1">
         <v>65</v>
       </c>
@@ -33430,7 +33432,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A92" s="1">
         <v>66</v>
       </c>
@@ -33450,7 +33452,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A93" s="1">
         <v>67</v>
       </c>
@@ -33470,7 +33472,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A94" s="1">
         <v>68</v>
       </c>
@@ -33490,7 +33492,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A95" s="1">
         <v>69</v>
       </c>
@@ -33510,7 +33512,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A96" s="1">
         <v>70</v>
       </c>
@@ -33530,7 +33532,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A97" s="1">
         <v>71</v>
       </c>
@@ -33550,7 +33552,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A98" s="1">
         <v>72</v>
       </c>
@@ -33570,7 +33572,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A99" s="1">
         <v>73</v>
       </c>
@@ -33590,7 +33592,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A100" s="1">
         <v>74</v>
       </c>
@@ -33610,7 +33612,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A101" s="1">
         <v>75</v>
       </c>
@@ -33630,7 +33632,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A102" s="1">
         <v>76</v>
       </c>
@@ -33650,7 +33652,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A103" s="1">
         <v>77</v>
       </c>
@@ -33670,7 +33672,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A104" s="1">
         <v>78</v>
       </c>
@@ -33690,7 +33692,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A105" s="1">
         <v>79</v>
       </c>
@@ -33710,7 +33712,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A106" s="1">
         <v>80</v>
       </c>
@@ -33730,7 +33732,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A107" s="1">
         <v>81</v>
       </c>
@@ -33750,7 +33752,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A108" s="1">
         <v>82</v>
       </c>
@@ -33770,7 +33772,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A109" s="1">
         <v>83</v>
       </c>
@@ -33790,7 +33792,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A110" s="1">
         <v>84</v>
       </c>
@@ -33810,7 +33812,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A111" s="1">
         <v>85</v>
       </c>
@@ -33830,7 +33832,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A112" s="1">
         <v>86</v>
       </c>
@@ -33850,7 +33852,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A113" s="1">
         <v>87</v>
       </c>
@@ -33870,7 +33872,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A114" s="1">
         <v>88</v>
       </c>
@@ -33890,7 +33892,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A115" s="1">
         <v>89</v>
       </c>
@@ -33910,7 +33912,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A116" s="1">
         <v>90</v>
       </c>
@@ -33930,7 +33932,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A117" s="1">
         <v>91</v>
       </c>
@@ -33950,7 +33952,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A118" s="1">
         <v>92</v>
       </c>
@@ -33970,7 +33972,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A119" s="1">
         <v>93</v>
       </c>
@@ -33990,7 +33992,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A120" s="1">
         <v>94</v>
       </c>
@@ -34010,7 +34012,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A121" s="1">
         <v>95</v>
       </c>
@@ -34030,7 +34032,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A122" s="1">
         <v>96</v>
       </c>
@@ -34050,7 +34052,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A123" s="1">
         <v>97</v>
       </c>
@@ -34070,7 +34072,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A124" s="1">
         <v>98</v>
       </c>
@@ -34090,7 +34092,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A125" s="1">
         <v>99</v>
       </c>
@@ -34110,7 +34112,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A126" s="1">
         <v>100</v>
       </c>
@@ -34130,7 +34132,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A127" s="1">
         <v>101</v>
       </c>
@@ -34150,7 +34152,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A128" s="1">
         <v>102</v>
       </c>
@@ -34170,7 +34172,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A129" s="1">
         <v>103</v>
       </c>
@@ -34190,7 +34192,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A130" s="1">
         <v>104</v>
       </c>
@@ -34210,7 +34212,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A131" s="1">
         <v>105</v>
       </c>
@@ -34230,7 +34232,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A132" s="1">
         <v>106</v>
       </c>
@@ -34250,7 +34252,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A133" s="1">
         <v>107</v>
       </c>
@@ -34270,7 +34272,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A134" s="1">
         <v>108</v>
       </c>
@@ -34290,7 +34292,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A135" s="1">
         <v>109</v>
       </c>
@@ -34310,7 +34312,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A136" s="1">
         <v>110</v>
       </c>
@@ -34330,7 +34332,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A137" s="1">
         <v>111</v>
       </c>
@@ -34350,7 +34352,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A138" s="1">
         <v>112</v>
       </c>
@@ -34370,7 +34372,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A139" s="1">
         <v>113</v>
       </c>
@@ -34390,7 +34392,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A140" s="1">
         <v>114</v>
       </c>
@@ -34410,7 +34412,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A141" s="1">
         <v>115</v>
       </c>
@@ -34430,7 +34432,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A142" s="1">
         <v>116</v>
       </c>
@@ -34450,7 +34452,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A143" s="1">
         <v>117</v>
       </c>
@@ -34470,7 +34472,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A144" s="1">
         <v>118</v>
       </c>
@@ -34490,7 +34492,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A145" s="1">
         <v>119</v>
       </c>
@@ -34510,7 +34512,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A146" s="1">
         <v>120</v>
       </c>
@@ -34530,7 +34532,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A147" s="1">
         <v>121</v>
       </c>
@@ -34550,7 +34552,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A148" s="1">
         <v>122</v>
       </c>
@@ -34570,7 +34572,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A149" s="1">
         <v>123</v>
       </c>
@@ -34590,7 +34592,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A150" s="1">
         <v>124</v>
       </c>
@@ -34610,7 +34612,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A151" s="1">
         <v>125</v>
       </c>
@@ -34630,7 +34632,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A152" s="1">
         <v>126</v>
       </c>
@@ -34650,7 +34652,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A153" s="1">
         <v>127</v>
       </c>
@@ -34670,7 +34672,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A154" s="1">
         <v>128</v>
       </c>
@@ -34690,7 +34692,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A155" s="1">
         <v>129</v>
       </c>
@@ -34710,7 +34712,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A156" s="1">
         <v>130</v>
       </c>
@@ -34730,7 +34732,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A157" s="1">
         <v>131</v>
       </c>
@@ -34750,7 +34752,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A158" s="1">
         <v>132</v>
       </c>
@@ -34770,7 +34772,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A159" s="1">
         <v>133</v>
       </c>
@@ -34790,7 +34792,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A160" s="1">
         <v>134</v>
       </c>
@@ -34810,7 +34812,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A161" s="1">
         <v>135</v>
       </c>
@@ -34830,7 +34832,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A162" s="1">
         <v>136</v>
       </c>
@@ -34850,7 +34852,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A163" s="1">
         <v>137</v>
       </c>
@@ -34870,7 +34872,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A164" s="1">
         <v>138</v>
       </c>
@@ -34890,7 +34892,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A165" s="1">
         <v>139</v>
       </c>
@@ -34910,7 +34912,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A166" s="1">
         <v>140</v>
       </c>
@@ -34930,7 +34932,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A167" s="1">
         <v>141</v>
       </c>
@@ -34950,7 +34952,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A168" s="1">
         <v>142</v>
       </c>
@@ -34970,7 +34972,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A169" s="1">
         <v>143</v>
       </c>
@@ -34990,7 +34992,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A170" s="1">
         <v>144</v>
       </c>
@@ -35010,7 +35012,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A171" s="1">
         <v>145</v>
       </c>
@@ -35030,7 +35032,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A172" s="1">
         <v>146</v>
       </c>
@@ -35050,7 +35052,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A173" s="1">
         <v>147</v>
       </c>
@@ -35070,7 +35072,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A174" s="1">
         <v>148</v>
       </c>
@@ -35090,7 +35092,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A175" s="1">
         <v>149</v>
       </c>
@@ -35110,7 +35112,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A176" s="1">
         <v>150</v>
       </c>
@@ -35130,7 +35132,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A177" s="1">
         <v>151</v>
       </c>
@@ -35150,7 +35152,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A178" s="1">
         <v>152</v>
       </c>
@@ -35170,7 +35172,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A179" s="1">
         <v>153</v>
       </c>
@@ -35190,7 +35192,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A180" s="1">
         <v>154</v>
       </c>
@@ -35210,7 +35212,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A181" s="1">
         <v>155</v>
       </c>
@@ -35230,7 +35232,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A182" s="1">
         <v>156</v>
       </c>
@@ -35250,7 +35252,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A183" s="1">
         <v>157</v>
       </c>
@@ -35270,7 +35272,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A184" s="1">
         <v>158</v>
       </c>
@@ -35290,7 +35292,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A185" s="1">
         <v>159</v>
       </c>
@@ -35310,7 +35312,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A186" s="1">
         <v>160</v>
       </c>
@@ -35330,7 +35332,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A187" s="1">
         <v>161</v>
       </c>
@@ -35350,7 +35352,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A188" s="1">
         <v>162</v>
       </c>
@@ -35370,7 +35372,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A189" s="1">
         <v>163</v>
       </c>
@@ -35390,7 +35392,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A190" s="1">
         <v>164</v>
       </c>
@@ -35410,7 +35412,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A191" s="1">
         <v>165</v>
       </c>
@@ -35430,7 +35432,7 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A192" s="1">
         <v>166</v>
       </c>
@@ -35450,7 +35452,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A193" s="1">
         <v>167</v>
       </c>
@@ -35470,7 +35472,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A194" s="1">
         <v>168</v>
       </c>
@@ -35490,7 +35492,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A195" s="1">
         <v>169</v>
       </c>
@@ -35510,7 +35512,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A196" s="1">
         <v>170</v>
       </c>
@@ -35530,7 +35532,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A197" s="1">
         <v>171</v>
       </c>
@@ -35550,7 +35552,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A198" s="1">
         <v>172</v>
       </c>
@@ -35570,7 +35572,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A199" s="1">
         <v>173</v>
       </c>
@@ -35590,7 +35592,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A200" s="1">
         <v>174</v>
       </c>
@@ -35610,7 +35612,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A201" s="1">
         <v>175</v>
       </c>
@@ -35630,7 +35632,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A202" s="1">
         <v>176</v>
       </c>
@@ -35650,7 +35652,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A203" s="1">
         <v>177</v>
       </c>
@@ -35670,7 +35672,7 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A204" s="1">
         <v>178</v>
       </c>
@@ -35690,7 +35692,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A205" s="1">
         <v>179</v>
       </c>
@@ -35710,7 +35712,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A206" s="1">
         <v>180</v>
       </c>
@@ -35730,7 +35732,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A207" s="1">
         <v>181</v>
       </c>
@@ -35750,7 +35752,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A208" s="1">
         <v>182</v>
       </c>
@@ -35770,7 +35772,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A209" s="1">
         <v>183</v>
       </c>
@@ -35790,7 +35792,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A210" s="1">
         <v>184</v>
       </c>
@@ -35810,7 +35812,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A211" s="1">
         <v>185</v>
       </c>
@@ -35830,7 +35832,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A212" s="1">
         <v>186</v>
       </c>
@@ -35850,7 +35852,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A213" s="1">
         <v>187</v>
       </c>
@@ -35870,7 +35872,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A214" s="1">
         <v>188</v>
       </c>
@@ -35890,7 +35892,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A215" s="1">
         <v>189</v>
       </c>
@@ -35910,7 +35912,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A216" s="1">
         <v>190</v>
       </c>
@@ -35930,7 +35932,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A217" s="1">
         <v>191</v>
       </c>
@@ -35950,7 +35952,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A218" s="1">
         <v>192</v>
       </c>
@@ -35970,7 +35972,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A219" s="1">
         <v>193</v>
       </c>
@@ -35990,7 +35992,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A220" s="1">
         <v>194</v>
       </c>
@@ -36010,7 +36012,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A221" s="1">
         <v>195</v>
       </c>
@@ -36030,7 +36032,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A222" s="1">
         <v>196</v>
       </c>
@@ -36050,7 +36052,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A223" s="1">
         <v>197</v>
       </c>
@@ -36070,7 +36072,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A224" s="1">
         <v>198</v>
       </c>
@@ -36090,7 +36092,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A225" s="1">
         <v>199</v>
       </c>
@@ -36110,7 +36112,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A226" s="1">
         <v>200</v>
       </c>
@@ -36130,7 +36132,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A227" s="1">
         <v>201</v>
       </c>
@@ -36150,7 +36152,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A228" s="1">
         <v>202</v>
       </c>
@@ -36170,7 +36172,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A229" s="1">
         <v>203</v>
       </c>
@@ -36190,7 +36192,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A230" s="1">
         <v>204</v>
       </c>
@@ -36210,7 +36212,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A231" s="1">
         <v>205</v>
       </c>
@@ -36230,7 +36232,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A232" s="1">
         <v>206</v>
       </c>
@@ -36250,7 +36252,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A233" s="1">
         <v>207</v>
       </c>
@@ -36270,7 +36272,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A234" s="1">
         <v>208</v>
       </c>
@@ -36290,7 +36292,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A235" s="1">
         <v>209</v>
       </c>
@@ -36310,7 +36312,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A236" s="1">
         <v>210</v>
       </c>
@@ -36330,7 +36332,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A237" s="1">
         <v>211</v>
       </c>
@@ -36350,7 +36352,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A238" s="1">
         <v>212</v>
       </c>
@@ -36370,7 +36372,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A239" s="1">
         <v>213</v>
       </c>
@@ -36390,7 +36392,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A240" s="1">
         <v>214</v>
       </c>
@@ -36410,7 +36412,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A241" s="1">
         <v>215</v>
       </c>
@@ -36430,7 +36432,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A242" s="1">
         <v>216</v>
       </c>
@@ -36450,7 +36452,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A243" s="1">
         <v>217</v>
       </c>
@@ -36470,7 +36472,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A244" s="1">
         <v>218</v>
       </c>
@@ -36490,7 +36492,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A245" s="1">
         <v>219</v>
       </c>
@@ -36510,7 +36512,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A246" s="1">
         <v>220</v>
       </c>
@@ -36530,7 +36532,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A247" s="1">
         <v>221</v>
       </c>
@@ -36550,7 +36552,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A248" s="1">
         <v>222</v>
       </c>
@@ -36570,7 +36572,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A249" s="1">
         <v>223</v>
       </c>
@@ -36590,7 +36592,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A250" s="1">
         <v>224</v>
       </c>
@@ -36610,7 +36612,7 @@
         <v>4475</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A251" s="1">
         <v>225</v>
       </c>
@@ -36630,7 +36632,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A252" s="1">
         <v>226</v>
       </c>
@@ -36650,7 +36652,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A253" s="1">
         <v>227</v>
       </c>
@@ -36670,7 +36672,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A254" s="1">
         <v>228</v>
       </c>
@@ -36690,7 +36692,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A255" s="1">
         <v>229</v>
       </c>
@@ -36710,7 +36712,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A256" s="1">
         <v>230</v>
       </c>
@@ -36730,7 +36732,7 @@
         <v>4575</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A257" s="1">
         <v>231</v>
       </c>
@@ -36750,7 +36752,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A258" s="1">
         <v>232</v>
       </c>
@@ -36770,7 +36772,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A259" s="1">
         <v>233</v>
       </c>
@@ -36790,7 +36792,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A260" s="1">
         <v>234</v>
       </c>
@@ -36810,7 +36812,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A261" s="1">
         <v>235</v>
       </c>
@@ -36830,7 +36832,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A262" s="1">
         <v>236</v>
       </c>
@@ -36850,7 +36852,7 @@
         <v>4625</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A263" s="1">
         <v>237</v>
       </c>
@@ -36870,7 +36872,7 @@
         <v>4625</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A264" s="1">
         <v>238</v>
       </c>
@@ -36890,7 +36892,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A265" s="1">
         <v>239</v>
       </c>
@@ -36910,7 +36912,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A266" s="1">
         <v>240</v>
       </c>
@@ -36930,7 +36932,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A267" s="1">
         <v>241</v>
       </c>
@@ -36950,7 +36952,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A268" s="1">
         <v>242</v>
       </c>
@@ -36970,7 +36972,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A269" s="1">
         <v>243</v>
       </c>
@@ -36990,7 +36992,7 @@
         <v>4675</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A270" s="1">
         <v>244</v>
       </c>
@@ -37010,7 +37012,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A271" s="1">
         <v>245</v>
       </c>
@@ -37030,7 +37032,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A272" s="1">
         <v>246</v>
       </c>
@@ -37050,7 +37052,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A273" s="1">
         <v>247</v>
       </c>
@@ -37070,7 +37072,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A274" s="1">
         <v>248</v>
       </c>
@@ -37090,7 +37092,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A275" s="1">
         <v>249</v>
       </c>
@@ -37110,7 +37112,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A276" s="1">
         <v>250</v>
       </c>
@@ -37130,7 +37132,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A277" s="1">
         <v>251</v>
       </c>
@@ -37150,7 +37152,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A278" s="1">
         <v>252</v>
       </c>
@@ -37170,7 +37172,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A279" s="1">
         <v>253</v>
       </c>
@@ -37190,7 +37192,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A280" s="1">
         <v>254</v>
       </c>
@@ -37210,7 +37212,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A281" s="1">
         <v>255</v>
       </c>
@@ -37230,7 +37232,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A282" s="1">
         <v>256</v>
       </c>
@@ -37250,7 +37252,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A283" s="1">
         <v>257</v>
       </c>
@@ -37270,7 +37272,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A284" s="1">
         <v>258</v>
       </c>
@@ -37290,7 +37292,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A285" s="1">
         <v>259</v>
       </c>
@@ -37310,7 +37312,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A286" s="1">
         <v>260</v>
       </c>
@@ -37330,7 +37332,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A287" s="1">
         <v>261</v>
       </c>
@@ -37350,7 +37352,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A288" s="1">
         <v>262</v>
       </c>
@@ -37370,7 +37372,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A289" s="1">
         <v>263</v>
       </c>
@@ -37390,7 +37392,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A290" s="1">
         <v>264</v>
       </c>
@@ -37410,7 +37412,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A291" s="1">
         <v>265</v>
       </c>
@@ -37430,7 +37432,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A292" s="1">
         <v>266</v>
       </c>
@@ -37450,7 +37452,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A293" s="1">
         <v>267</v>
       </c>
@@ -37470,7 +37472,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A294" s="1">
         <v>268</v>
       </c>
@@ -37490,7 +37492,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A295" s="1">
         <v>269</v>
       </c>
@@ -37510,7 +37512,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A296" s="1">
         <v>270</v>
       </c>
@@ -37530,7 +37532,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A297" s="1">
         <v>271</v>
       </c>
@@ -37550,7 +37552,7 @@
         <v>4925</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A298" s="1">
         <v>272</v>
       </c>
@@ -37570,7 +37572,7 @@
         <v>4925</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A299" s="1">
         <v>273</v>
       </c>
@@ -37590,7 +37592,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A300" s="1">
         <v>274</v>
       </c>
@@ -37610,7 +37612,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A301" s="1">
         <v>275</v>
       </c>
@@ -37630,7 +37632,7 @@
         <v>4975</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A302" s="1">
         <v>276</v>
       </c>
@@ -37650,7 +37652,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A303" s="1">
         <v>277</v>
       </c>
@@ -37670,7 +37672,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A304" s="1">
         <v>278</v>
       </c>
@@ -37690,7 +37692,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A305" s="1">
         <v>279</v>
       </c>
@@ -37710,7 +37712,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A306" s="1">
         <v>280</v>
       </c>
@@ -37730,7 +37732,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A307" s="1">
         <v>281</v>
       </c>
@@ -37750,7 +37752,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A308" s="1">
         <v>282</v>
       </c>
@@ -37770,7 +37772,7 @@
         <v>5050</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A309" s="1">
         <v>283</v>
       </c>
@@ -37790,7 +37792,7 @@
         <v>5050</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A310" s="1">
         <v>284</v>
       </c>
@@ -37810,7 +37812,7 @@
         <v>5050</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A311" s="1">
         <v>285</v>
       </c>
@@ -37830,7 +37832,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A312" s="1">
         <v>286</v>
       </c>
@@ -37850,7 +37852,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A313" s="1">
         <v>287</v>
       </c>
@@ -37870,7 +37872,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A314" s="1">
         <v>288</v>
       </c>
@@ -37890,7 +37892,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A315" s="1">
         <v>289</v>
       </c>
@@ -37910,7 +37912,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A316" s="1">
         <v>290</v>
       </c>
@@ -37930,7 +37932,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A317" s="1">
         <v>291</v>
       </c>
@@ -37950,7 +37952,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A318" s="1">
         <v>292</v>
       </c>
@@ -37970,7 +37972,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A319" s="1">
         <v>293</v>
       </c>
@@ -37990,7 +37992,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A320" s="1">
         <v>294</v>
       </c>
@@ -38010,7 +38012,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A321" s="1">
         <v>295</v>
       </c>
@@ -38030,7 +38032,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A322" s="1">
         <v>296</v>
       </c>
@@ -38050,7 +38052,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A323" s="1">
         <v>297</v>
       </c>
@@ -38070,7 +38072,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A324" s="1">
         <v>298</v>
       </c>
@@ -38090,7 +38092,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A325" s="1">
         <v>299</v>
       </c>
@@ -38110,7 +38112,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A326" s="1">
         <v>300</v>
       </c>
@@ -38130,7 +38132,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A327" s="1">
         <v>301</v>
       </c>
@@ -38150,7 +38152,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A328" s="1">
         <v>302</v>
       </c>
@@ -38170,7 +38172,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A329" s="1">
         <v>303</v>
       </c>
@@ -38190,7 +38192,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A330" s="1">
         <v>304</v>
       </c>
@@ -38210,7 +38212,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A331" s="1">
         <v>305</v>
       </c>
@@ -38230,7 +38232,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A332" s="1">
         <v>306</v>
       </c>
@@ -38250,7 +38252,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A333" s="1">
         <v>307</v>
       </c>
@@ -38270,7 +38272,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A334" s="1">
         <v>308</v>
       </c>
@@ -38290,7 +38292,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A335" s="1">
         <v>309</v>
       </c>
@@ -38310,7 +38312,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A336" s="1">
         <v>310</v>
       </c>
@@ -38330,7 +38332,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A337" s="1">
         <v>311</v>
       </c>
@@ -38350,7 +38352,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A338" s="1">
         <v>312</v>
       </c>
@@ -38370,7 +38372,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A339" s="1">
         <v>313</v>
       </c>
@@ -38390,7 +38392,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A340" s="1">
         <v>314</v>
       </c>
@@ -38410,7 +38412,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A341" s="1">
         <v>315</v>
       </c>
@@ -38430,7 +38432,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A342" s="1">
         <v>316</v>
       </c>
@@ -38450,7 +38452,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A343" s="1">
         <v>317</v>
       </c>
@@ -38470,7 +38472,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A344" s="1">
         <v>318</v>
       </c>
@@ -38490,7 +38492,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A345" s="1">
         <v>319</v>
       </c>
@@ -38510,7 +38512,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A346" s="1">
         <v>320</v>
       </c>
@@ -38530,7 +38532,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A347" s="1">
         <v>321</v>
       </c>
@@ -38550,7 +38552,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A348" s="1">
         <v>322</v>
       </c>
@@ -38570,7 +38572,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A349" s="1">
         <v>323</v>
       </c>
@@ -38590,7 +38592,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A350" s="1">
         <v>324</v>
       </c>
@@ -38610,7 +38612,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A351" s="1">
         <v>325</v>
       </c>
@@ -38630,7 +38632,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A352" s="1">
         <v>326</v>
       </c>
@@ -38650,7 +38652,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A353" s="1">
         <v>327</v>
       </c>
@@ -38670,7 +38672,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A354" s="1">
         <v>328</v>
       </c>
@@ -38690,7 +38692,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A355" s="1">
         <v>329</v>
       </c>
@@ -38710,7 +38712,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A356" s="1">
         <v>330</v>
       </c>
@@ -38730,7 +38732,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A357" s="1">
         <v>331</v>
       </c>
@@ -38750,7 +38752,7 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A358" s="1">
         <v>332</v>
       </c>
@@ -38770,7 +38772,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A359" s="1">
         <v>333</v>
       </c>
@@ -38790,7 +38792,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A360" s="1">
         <v>334</v>
       </c>
@@ -38810,7 +38812,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A361" s="1">
         <v>335</v>
       </c>
@@ -38830,7 +38832,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A362" s="1">
         <v>336</v>
       </c>
@@ -38850,7 +38852,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A363" s="1">
         <v>337</v>
       </c>
@@ -38870,7 +38872,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A364" s="1">
         <v>338</v>
       </c>
@@ -38890,7 +38892,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A365" s="1">
         <v>339</v>
       </c>
@@ -38910,7 +38912,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A366" s="1">
         <v>340</v>
       </c>
@@ -38930,7 +38932,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A367" s="1">
         <v>341</v>
       </c>
@@ -38950,7 +38952,7 @@
         <v>6050</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="2">
         <v>342</v>
       </c>
